--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>payment_id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>transaction_status_blockchain</t>
+  </si>
+  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>test_text_link111</t>
   </si>
   <si>
     <t>a15e9214-a0e0-4af5-8dbf-9657184e9e3a</t>
@@ -1512,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1527,8 +1533,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="13" width="26.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1565,32 +1571,35 @@
       <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
@@ -1599,34 +1608,37 @@
         <v>3637</v>
       </c>
       <c r="K2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
@@ -1635,10 +1647,11 @@
         <v>3589</v>
       </c>
       <c r="K3" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" t="s" s="6">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1654,6 +1667,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1668,6 +1682,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1682,6 +1697,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1696,6 +1712,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1710,6 +1727,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1724,6 +1742,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1738,6 +1757,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>payment_id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>transaction_status_blockchain</t>
-  </si>
-  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>test_text_link111</t>
   </si>
   <si>
     <t>a15e9214-a0e0-4af5-8dbf-9657184e9e3a</t>
@@ -1518,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1533,8 +1527,8 @@
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="13" width="26.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="12" width="26.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1571,35 +1565,32 @@
       <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="G2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>17</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>18</v>
       </c>
       <c r="I2" s="8">
         <v>99</v>
@@ -1608,37 +1599,34 @@
         <v>3637</v>
       </c>
       <c r="K2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="G3" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="H3" t="s" s="3">
         <v>25</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="I3" s="8">
         <v>11.11</v>
@@ -1647,11 +1635,10 @@
         <v>3589</v>
       </c>
       <c r="K3" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" t="s" s="6">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="L3" t="s" s="6">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1667,7 +1654,6 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1682,7 +1668,6 @@
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1697,7 +1682,6 @@
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1712,7 +1696,6 @@
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1727,7 +1710,6 @@
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1742,7 +1724,6 @@
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1757,7 +1738,6 @@
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>payment_id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>admin_level_2</t>
+  </si>
+  <si>
+    <t>village</t>
   </si>
   <si>
     <t>collector_name</t>
@@ -1512,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1521,14 +1524,14 @@
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="1" customWidth="1"/>
+    <col min="11" max="13" width="26.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1544,101 +1547,106 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="6">
+      <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
       <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="E2" s="2"/>
+      <c r="F2" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8">
         <v>99</v>
       </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>3637</v>
       </c>
-      <c r="K2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="L2" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="E3" s="2"/>
+      <c r="F3" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8">
         <v>11.11</v>
       </c>
-      <c r="J3" s="9">
+      <c r="K3" s="9">
         <v>3589</v>
       </c>
-      <c r="K3" t="s" s="6">
-        <v>18</v>
-      </c>
       <c r="L3" t="s" s="6">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="M3" t="s" s="6">
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1647,13 +1655,14 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1665,9 +1674,10 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1679,9 +1689,10 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1693,9 +1704,10 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1707,9 +1719,10 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1721,9 +1734,10 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1735,9 +1749,10 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/pp_payment_list_unexpected_column.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>payment_id</t>
   </si>
@@ -49,6 +49,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>national_id</t>
+  </si>
+  <si>
     <t>714a72db-79e3-42d1-a9e8-a949aebbf1ae</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>DOP</t>
+  </si>
+  <si>
+    <t>ABC123456</t>
   </si>
   <si>
     <t>Test</t>
@@ -1515,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1530,8 +1536,8 @@
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="13" width="26.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="11" max="14" width="26.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1571,33 +1577,36 @@
       <c r="L1" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
         <v>4</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8">
         <v>99</v>
@@ -1606,35 +1615,36 @@
         <v>3637</v>
       </c>
       <c r="L2" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8">
         <v>11.11</v>
@@ -1643,10 +1653,13 @@
         <v>3589</v>
       </c>
       <c r="L3" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="N3" t="s" s="6">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1663,6 +1676,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="15"/>
@@ -1678,6 +1692,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="15"/>
@@ -1693,6 +1708,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="15"/>
@@ -1708,6 +1724,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="15"/>
@@ -1723,6 +1740,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="15"/>
@@ -1738,6 +1756,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="19"/>
@@ -1753,6 +1772,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
